--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emily.Mangan\Dropbox\India EPS\InputData UPDATE FOR INDIA\land\RPEpUACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\land\RPEpUACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1013EB59-E2B6-4BC2-B2F8-7F5043DA2D8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,20 @@
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="RPEpUACE" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -111,9 +120,6 @@
     <t>Net CO2 Emissions</t>
   </si>
   <si>
-    <t>Table 2.2: GHG Emissions by sector (Gg)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rebound Emissions </t>
   </si>
   <si>
@@ -123,9 +129,6 @@
     <t>Table 2.2: Greenhouse gas emissions, by sectors, for India in 2010</t>
   </si>
   <si>
-    <t>GHG Emissions</t>
-  </si>
-  <si>
     <t>Ministry of Environment, Forest and Climate Change</t>
   </si>
   <si>
@@ -133,12 +136,45 @@
   </si>
   <si>
     <t>unfccc.int/resource/docs/natc/indbur1.pdf</t>
+  </si>
+  <si>
+    <t>Table 2.2: GHG Emissions by sector (Gg) (First Biennial Report - 2010)</t>
+  </si>
+  <si>
+    <t>Table 2.2: GHG Emissions by sector (Gg) (Second Biennial Report - 2014)</t>
+  </si>
+  <si>
+    <t>2014 (Gg)</t>
+  </si>
+  <si>
+    <t>GHG Emissions (2010)</t>
+  </si>
+  <si>
+    <t>GHG Emissions (2014)</t>
+  </si>
+  <si>
+    <t>Second Biennial Update Report to the UNFCCC</t>
+  </si>
+  <si>
+    <t>https://unfccc.int/sites/default/files/resource/INDIA%20SECOND%20BUR%20High%20Res.pdf</t>
+  </si>
+  <si>
+    <t>Table 2.2: Greenhouse gas emissions, by sectors, for India in 2014</t>
+  </si>
+  <si>
+    <t>For India, historical CH4/N2O emissions are available for the LULUCF sector only</t>
+  </si>
+  <si>
+    <t>for 2012 &amp; 2014, in the Biennial reports. We use the ratios from the same to</t>
+  </si>
+  <si>
+    <t>estimate the average value to be applied to future years.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -202,6 +238,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,26 +577,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="57.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -568,55 +608,85 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -626,23 +696,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -684,7 +754,7 @@
         <v>1.87</v>
       </c>
       <c r="F3" s="5">
-        <v>252531.78</v>
+        <v>-252531.78</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,6 +766,64 @@
       <c r="B6" s="5">
         <f>B3-C3</f>
         <v>-256325.07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8">
+        <v>17216.04</v>
+      </c>
+      <c r="C10" s="8">
+        <v>319860.23</v>
+      </c>
+      <c r="D10">
+        <v>48.19</v>
+      </c>
+      <c r="E10">
+        <v>1.42</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-301192.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <f>B10-C10</f>
+        <v>-302644.19</v>
       </c>
     </row>
   </sheetData>
@@ -705,22 +833,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -730,7 +859,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,6 +873,10 @@
         <f>Data!B6</f>
         <v>-256325.07</v>
       </c>
+      <c r="C4" s="8">
+        <f>Data!B13</f>
+        <v>-302644.19</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -750,6 +886,10 @@
         <f>Data!D3</f>
         <v>153.02000000000001</v>
       </c>
+      <c r="C5">
+        <f>Data!D10</f>
+        <v>48.19</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -759,14 +899,22 @@
         <f>Data!E3</f>
         <v>1.87</v>
       </c>
+      <c r="C6">
+        <f>Data!E10</f>
+        <v>1.42</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" ref="B8" si="0">B5/B4</f>
+        <f t="shared" ref="B8:C8" si="0">B5/B4</f>
         <v>-5.9697633165573698E-4</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.5922988642207207E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,8 +922,12 @@
         <v>12</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" ref="B9" si="1">B6/B4</f>
+        <f t="shared" ref="B9:C9" si="1">B6/B4</f>
         <v>-7.2954237367417868E-6</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.6919783921839041E-6</v>
       </c>
     </row>
   </sheetData>
@@ -784,14 +936,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,8 +1033,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <f>Calculations!B8</f>
-        <v>-5.9697633165573698E-4</v>
+        <f>-AVERAGE(Calculations!B8, Calculations!C8)</f>
+        <v>3.781031090389045E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,8 +1042,8 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <f>Calculations!B9</f>
-        <v>-7.2954237367417868E-6</v>
+        <f>-AVERAGE(Calculations!B9,Calculations!C9)</f>
+        <v>5.9937010644628454E-6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
